--- a/2019_sell/20191126.xlsx
+++ b/2019_sell/20191126.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_sell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6689D6FB-78A1-4324-8E61-7167DE0BD5FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE220C9-2FDD-4C3F-9238-3E81697E21C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{90E51262-4B9F-477D-A907-ED8B90799079}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>散件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,18 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN补助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>机器人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,14 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一输出奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二输出奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MC收入扣除费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,14 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N补助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火蜥蜴短裤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,6 +270,14 @@
   </si>
   <si>
     <t>边个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dkp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,22 +701,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A401816-C903-4DC8-A8BA-32AED1B1A46C}">
-  <dimension ref="A3:K53"/>
+  <dimension ref="A3:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="8.125" customWidth="1"/>
     <col min="10" max="10" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -749,165 +725,235 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
         <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2">
         <v>150</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2">
         <v>520</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <f>SUM(C4:C11)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5">
+        <f>M5*K$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="D6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2">
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6">
+        <f>M6*K$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="J7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K7">
         <f>K5/K6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7">
+        <f>M7*K$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8">
+        <f>M8*K$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9">
+        <f>M9*K$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10">
+        <f>M10*K$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11">
+        <f>M11*K$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K14">
         <f>SUM(C14:C99) + SUM(H:H)</f>
         <v>5490</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K15">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>200</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>260</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -917,31 +963,31 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>500</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K23">
         <f>K14</f>
@@ -951,37 +997,37 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>500</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -990,16 +1036,16 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1008,314 +1054,283 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>300</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J29" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="J30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K30">
-        <f>K14*0.02</f>
-        <v>109.8</v>
+        <v>167.8</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>220</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31">
-        <f>K14*0.02</f>
-        <v>109.8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>350</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="J33" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33">
-        <f>K14*0.01</f>
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
-      </c>
-      <c r="J34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34">
-        <f>K14*0.005</f>
-        <v>27.45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C37">
         <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K37">
         <f>K23-SUM(K28:K31)</f>
-        <v>5270.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5237.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C38">
         <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K38">
         <f>K37/K15</f>
-        <v>138.69473684210524</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>137.82105263157894</v>
+      </c>
+      <c r="M38">
+        <f>K38*K15</f>
+        <v>5237.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C39">
         <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40">
         <f>K38*J40</f>
-        <v>138.69473684210524</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>137.82105263157894</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>850</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J41">
         <v>2</v>
       </c>
       <c r="K41">
         <f>K38*J41</f>
-        <v>277.38947368421049</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>275.64210526315787</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J42">
         <v>3</v>
       </c>
       <c r="K42">
         <f>K38*J42</f>
-        <v>416.0842105263157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>413.46315789473681</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>200</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J43">
         <v>4</v>
       </c>
       <c r="K43">
         <f>K38*J43</f>
-        <v>554.77894736842097</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>551.28421052631575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="I44" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J44">
         <v>5</v>
       </c>
       <c r="K44">
         <f>K38*J44</f>
-        <v>693.47368421052624</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>689.10526315789468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="I45" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J45">
         <v>6</v>
       </c>
       <c r="K45">
         <f>K38*J45</f>
-        <v>832.1684210526314</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>826.92631578947362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="I46" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J46">
         <v>7</v>
       </c>
       <c r="K46">
         <f>K38*J46</f>
-        <v>970.86315789473667</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>964.74736842105256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="J49" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K49">
-        <f>K30/2/K48</f>
-        <v>13.725</v>
+        <f>K30/K48</f>
+        <v>83.9</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="J50" t="s">
-        <v>24</v>
-      </c>
-      <c r="K50">
-        <v>14</v>
-      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="J51" t="s">
-        <v>25</v>
-      </c>
-      <c r="K51">
-        <f>K30/2/K50</f>
-        <v>3.9214285714285713</v>
-      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
